--- a/data/belgrad/Veriler.xlsx
+++ b/data/belgrad/Veriler.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferki\Desktop\bozankaya_ssh_takip\data\belgrad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD970C25-04D7-4EB4-B4DF-05BC977B0090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA38A95A-021B-4A2D-8472-719DFEA8B7BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3855" yWindow="3855" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="198">
   <si>
     <t>tram_id</t>
   </si>
@@ -616,12 +616,27 @@
   </si>
   <si>
     <t>Wicov</t>
+  </si>
+  <si>
+    <t>Arıza Tipi</t>
+  </si>
+  <si>
+    <t>(I) İlk Defa Karşılaşılan Arıza</t>
+  </si>
+  <si>
+    <t>(II) Aynı Araçta Tekrarlayan Arıza</t>
+  </si>
+  <si>
+    <t>(III) Farklı Araçlarda Tekrarlayan Arıza</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-41F]d\ mmmm\ yy;@"/>
+  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -781,9 +796,6 @@
   </cellStyleXfs>
   <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -830,6 +842,7 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1173,1142 +1186,1142 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:41" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="W1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="X1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Y1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="Z1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AA1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AB1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AC1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AD1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AE1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AF1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AG1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AH1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AI1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AK1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AL1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AM1" s="3" t="s">
+      <c r="AM1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AN1" s="3" t="s">
+      <c r="AN1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AO1" s="4" t="s">
+      <c r="AO1" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="N2" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="O2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="P2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="Q2" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="R2" s="7" t="s">
+      <c r="R2" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="S2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="T2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="U2" s="5" t="s">
+      <c r="U2" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="V2" s="6" t="s">
+      <c r="V2" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="W2" s="9" t="s">
+      <c r="W2" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="X2" s="6" t="s">
+      <c r="X2" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="Y2" s="6" t="s">
+      <c r="Y2" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="Z2" s="7" t="s">
+      <c r="Z2" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="AA2" s="5" t="s">
+      <c r="AA2" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="AB2" s="5"/>
-      <c r="AC2" s="6" t="s">
+      <c r="AB2" s="4"/>
+      <c r="AC2" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="AD2" s="7" t="s">
+      <c r="AD2" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="AE2" s="6" t="s">
+      <c r="AE2" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="AF2" s="6" t="s">
+      <c r="AF2" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="AG2" s="8"/>
-      <c r="AH2" s="5" t="s">
+      <c r="AG2" s="7"/>
+      <c r="AH2" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="AI2" s="5"/>
-      <c r="AJ2" s="8" t="s">
+      <c r="AI2" s="4"/>
+      <c r="AJ2" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="AK2" s="6" t="s">
+      <c r="AK2" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="AL2" s="6" t="s">
+      <c r="AL2" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="AM2" s="6" t="s">
+      <c r="AM2" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="AN2" s="6"/>
-      <c r="AO2" s="10" t="s">
+      <c r="AN2" s="5"/>
+      <c r="AO2" s="9" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:41" ht="27" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="11" t="s">
+      <c r="F3" s="11"/>
+      <c r="G3" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="I3" s="13"/>
-      <c r="J3" s="11" t="s">
+      <c r="I3" s="12"/>
+      <c r="J3" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="K3" s="13"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="11" t="s">
+      <c r="K3" s="12"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="N3" s="11" t="s">
+      <c r="N3" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="O3" s="11" t="s">
+      <c r="O3" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="11" t="s">
+      <c r="P3" s="12"/>
+      <c r="Q3" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="R3" s="11" t="s">
+      <c r="R3" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="14"/>
-      <c r="V3" s="15" t="s">
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
+      <c r="U3" s="13"/>
+      <c r="V3" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="W3" s="15" t="s">
+      <c r="W3" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="X3" s="15" t="s">
+      <c r="X3" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="Y3" s="15" t="s">
+      <c r="Y3" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="Z3" s="13"/>
-      <c r="AA3" s="11" t="s">
+      <c r="Z3" s="12"/>
+      <c r="AA3" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="AB3" s="13"/>
-      <c r="AC3" s="11" t="s">
+      <c r="AB3" s="12"/>
+      <c r="AC3" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="AD3" s="11" t="s">
+      <c r="AD3" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AE3" s="13"/>
-      <c r="AF3" s="11" t="s">
+      <c r="AE3" s="12"/>
+      <c r="AF3" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="AG3" s="12"/>
-      <c r="AH3" s="11"/>
-      <c r="AI3" s="11"/>
-      <c r="AJ3" s="12"/>
-      <c r="AK3" s="12"/>
-      <c r="AL3" s="12"/>
-      <c r="AM3" s="11"/>
-      <c r="AN3" s="11"/>
+      <c r="AG3" s="11"/>
+      <c r="AH3" s="10"/>
+      <c r="AI3" s="10"/>
+      <c r="AJ3" s="11"/>
+      <c r="AK3" s="11"/>
+      <c r="AL3" s="11"/>
+      <c r="AM3" s="10"/>
+      <c r="AN3" s="10"/>
     </row>
     <row r="4" spans="1:41" ht="27" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="11" t="s">
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="11" t="s">
+      <c r="F4" s="12"/>
+      <c r="G4" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="I4" s="13"/>
-      <c r="J4" s="11" t="s">
+      <c r="I4" s="12"/>
+      <c r="J4" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="K4" s="13"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="11" t="s">
+      <c r="K4" s="12"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="N4" s="11" t="s">
+      <c r="N4" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="O4" s="11" t="s">
+      <c r="O4" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="11" t="s">
+      <c r="P4" s="12"/>
+      <c r="Q4" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="R4" s="11" t="s">
+      <c r="R4" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="S4" s="14"/>
-      <c r="T4" s="14"/>
-      <c r="U4" s="14"/>
-      <c r="V4" s="15" t="s">
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="W4" s="14"/>
-      <c r="X4" s="15" t="s">
+      <c r="W4" s="13"/>
+      <c r="X4" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="Y4" s="15" t="s">
+      <c r="Y4" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="Z4" s="13"/>
-      <c r="AA4" s="11" t="s">
+      <c r="Z4" s="12"/>
+      <c r="AA4" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="AB4" s="13"/>
-      <c r="AC4" s="11" t="s">
+      <c r="AB4" s="12"/>
+      <c r="AC4" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="AD4" s="11" t="s">
+      <c r="AD4" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="AE4" s="13"/>
-      <c r="AF4" s="11" t="s">
+      <c r="AE4" s="12"/>
+      <c r="AF4" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="AG4" s="12"/>
-      <c r="AH4" s="11"/>
-      <c r="AI4" s="11"/>
-      <c r="AJ4" s="12"/>
-      <c r="AK4" s="12"/>
-      <c r="AL4" s="12"/>
-      <c r="AM4" s="11"/>
-      <c r="AN4" s="11"/>
+      <c r="AG4" s="11"/>
+      <c r="AH4" s="10"/>
+      <c r="AI4" s="10"/>
+      <c r="AJ4" s="11"/>
+      <c r="AK4" s="11"/>
+      <c r="AL4" s="11"/>
+      <c r="AM4" s="10"/>
+      <c r="AN4" s="10"/>
     </row>
     <row r="5" spans="1:41" ht="27" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="11" t="s">
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="11" t="s">
+      <c r="F5" s="12"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="I5" s="13"/>
-      <c r="J5" s="11" t="s">
+      <c r="I5" s="12"/>
+      <c r="J5" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="K5" s="13"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="11" t="s">
+      <c r="K5" s="12"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="N5" s="11" t="s">
+      <c r="N5" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="O5" s="11" t="s">
+      <c r="O5" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="11" t="s">
+      <c r="P5" s="12"/>
+      <c r="Q5" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="R5" s="11" t="s">
+      <c r="R5" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="S5" s="14"/>
-      <c r="T5" s="14"/>
-      <c r="U5" s="14"/>
-      <c r="V5" s="15" t="s">
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="W5" s="14"/>
-      <c r="X5" s="14"/>
-      <c r="Y5" s="15" t="s">
+      <c r="W5" s="13"/>
+      <c r="X5" s="13"/>
+      <c r="Y5" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="Z5" s="13"/>
-      <c r="AA5" s="11" t="s">
+      <c r="Z5" s="12"/>
+      <c r="AA5" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="AB5" s="13"/>
-      <c r="AC5" s="11" t="s">
+      <c r="AB5" s="12"/>
+      <c r="AC5" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="AD5" s="14"/>
-      <c r="AE5" s="13"/>
-      <c r="AF5" s="11" t="s">
+      <c r="AD5" s="13"/>
+      <c r="AE5" s="12"/>
+      <c r="AF5" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="AG5" s="12"/>
-      <c r="AH5" s="11"/>
-      <c r="AI5" s="11"/>
-      <c r="AJ5" s="12"/>
-      <c r="AK5" s="12"/>
-      <c r="AL5" s="12"/>
-      <c r="AM5" s="11"/>
-      <c r="AN5" s="11"/>
+      <c r="AG5" s="11"/>
+      <c r="AH5" s="10"/>
+      <c r="AI5" s="10"/>
+      <c r="AJ5" s="11"/>
+      <c r="AK5" s="11"/>
+      <c r="AL5" s="11"/>
+      <c r="AM5" s="10"/>
+      <c r="AN5" s="10"/>
     </row>
     <row r="6" spans="1:41" ht="27" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="11" t="s">
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="11" t="s">
+      <c r="F6" s="12"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="I6" s="13"/>
-      <c r="J6" s="11" t="s">
+      <c r="I6" s="12"/>
+      <c r="J6" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="K6" s="13"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="11" t="s">
+      <c r="K6" s="12"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="11" t="s">
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="R6" s="11" t="s">
+      <c r="R6" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="S6" s="14"/>
-      <c r="T6" s="14"/>
-      <c r="U6" s="14"/>
-      <c r="V6" s="15" t="s">
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="13"/>
+      <c r="V6" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="W6" s="15" t="s">
+      <c r="W6" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="X6" s="14"/>
-      <c r="Y6" s="15" t="s">
+      <c r="X6" s="13"/>
+      <c r="Y6" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="Z6" s="13"/>
-      <c r="AA6" s="11" t="s">
+      <c r="Z6" s="12"/>
+      <c r="AA6" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="AB6" s="13"/>
-      <c r="AC6" s="11" t="s">
+      <c r="AB6" s="12"/>
+      <c r="AC6" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="AD6" s="14"/>
-      <c r="AE6" s="13"/>
-      <c r="AF6" s="11" t="s">
+      <c r="AD6" s="13"/>
+      <c r="AE6" s="12"/>
+      <c r="AF6" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="AG6" s="12"/>
-      <c r="AH6" s="11"/>
-      <c r="AI6" s="11"/>
-      <c r="AJ6" s="12"/>
-      <c r="AK6" s="12"/>
-      <c r="AL6" s="12"/>
-      <c r="AM6" s="11"/>
-      <c r="AN6" s="11"/>
+      <c r="AG6" s="11"/>
+      <c r="AH6" s="10"/>
+      <c r="AI6" s="10"/>
+      <c r="AJ6" s="11"/>
+      <c r="AK6" s="11"/>
+      <c r="AL6" s="11"/>
+      <c r="AM6" s="10"/>
+      <c r="AN6" s="10"/>
     </row>
     <row r="7" spans="1:41" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="11" t="s">
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="11" t="s">
+      <c r="F7" s="12"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="I7" s="13"/>
-      <c r="J7" s="11" t="s">
+      <c r="I7" s="12"/>
+      <c r="J7" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="K7" s="13"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="11" t="s">
+      <c r="K7" s="12"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="11" t="s">
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="R7" s="11" t="s">
+      <c r="R7" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="S7" s="14"/>
-      <c r="T7" s="14"/>
-      <c r="U7" s="14"/>
-      <c r="V7" s="15" t="s">
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="13"/>
+      <c r="V7" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="W7" s="14"/>
-      <c r="X7" s="14"/>
-      <c r="Y7" s="13"/>
-      <c r="Z7" s="13"/>
-      <c r="AA7" s="11" t="s">
+      <c r="W7" s="13"/>
+      <c r="X7" s="13"/>
+      <c r="Y7" s="12"/>
+      <c r="Z7" s="12"/>
+      <c r="AA7" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="AB7" s="13"/>
-      <c r="AC7" s="11" t="s">
+      <c r="AB7" s="12"/>
+      <c r="AC7" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="AD7" s="14"/>
-      <c r="AE7" s="13"/>
-      <c r="AF7" s="11" t="s">
+      <c r="AD7" s="13"/>
+      <c r="AE7" s="12"/>
+      <c r="AF7" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="AG7" s="12"/>
-      <c r="AH7" s="11"/>
-      <c r="AI7" s="11"/>
-      <c r="AJ7" s="12"/>
-      <c r="AK7" s="12"/>
-      <c r="AL7" s="12"/>
-      <c r="AM7" s="11"/>
-      <c r="AN7" s="11"/>
+      <c r="AG7" s="11"/>
+      <c r="AH7" s="10"/>
+      <c r="AI7" s="10"/>
+      <c r="AJ7" s="11"/>
+      <c r="AK7" s="11"/>
+      <c r="AL7" s="11"/>
+      <c r="AM7" s="10"/>
+      <c r="AN7" s="10"/>
     </row>
     <row r="8" spans="1:41" ht="27" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="11" t="s">
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="11" t="s">
+      <c r="F8" s="12"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="11" t="s">
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="R8" s="11" t="s">
+      <c r="R8" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="S8" s="14"/>
-      <c r="T8" s="14"/>
-      <c r="U8" s="14"/>
-      <c r="V8" s="15" t="s">
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="W8" s="15" t="s">
+      <c r="W8" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="X8" s="14"/>
-      <c r="Y8" s="13"/>
-      <c r="Z8" s="13"/>
-      <c r="AA8" s="11" t="s">
+      <c r="X8" s="13"/>
+      <c r="Y8" s="12"/>
+      <c r="Z8" s="12"/>
+      <c r="AA8" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="AB8" s="13"/>
-      <c r="AC8" s="11" t="s">
+      <c r="AB8" s="12"/>
+      <c r="AC8" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="AD8" s="14"/>
-      <c r="AE8" s="13"/>
-      <c r="AF8" s="14"/>
-      <c r="AG8" s="12"/>
-      <c r="AH8" s="11"/>
-      <c r="AI8" s="11"/>
-      <c r="AJ8" s="12"/>
-      <c r="AK8" s="12"/>
-      <c r="AL8" s="12"/>
-      <c r="AM8" s="11"/>
-      <c r="AN8" s="11"/>
+      <c r="AD8" s="13"/>
+      <c r="AE8" s="12"/>
+      <c r="AF8" s="13"/>
+      <c r="AG8" s="11"/>
+      <c r="AH8" s="10"/>
+      <c r="AI8" s="10"/>
+      <c r="AJ8" s="11"/>
+      <c r="AK8" s="11"/>
+      <c r="AL8" s="11"/>
+      <c r="AM8" s="10"/>
+      <c r="AN8" s="10"/>
     </row>
     <row r="9" spans="1:41" ht="27" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="11" t="s">
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="11" t="s">
+      <c r="F9" s="12"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="11" t="s">
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="R9" s="11" t="s">
+      <c r="R9" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="S9" s="14"/>
-      <c r="T9" s="14"/>
-      <c r="U9" s="14"/>
-      <c r="V9" s="15" t="s">
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="13"/>
+      <c r="V9" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="W9" s="15" t="s">
+      <c r="W9" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="X9" s="14"/>
-      <c r="Y9" s="13"/>
-      <c r="Z9" s="13"/>
-      <c r="AA9" s="14"/>
-      <c r="AB9" s="13"/>
-      <c r="AC9" s="11" t="s">
+      <c r="X9" s="13"/>
+      <c r="Y9" s="12"/>
+      <c r="Z9" s="12"/>
+      <c r="AA9" s="13"/>
+      <c r="AB9" s="12"/>
+      <c r="AC9" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="AD9" s="14"/>
-      <c r="AE9" s="13"/>
-      <c r="AF9" s="14"/>
-      <c r="AG9" s="12"/>
-      <c r="AH9" s="11"/>
-      <c r="AI9" s="11"/>
-      <c r="AJ9" s="12"/>
-      <c r="AK9" s="12"/>
-      <c r="AL9" s="12"/>
-      <c r="AM9" s="11"/>
-      <c r="AN9" s="11"/>
+      <c r="AD9" s="13"/>
+      <c r="AE9" s="12"/>
+      <c r="AF9" s="13"/>
+      <c r="AG9" s="11"/>
+      <c r="AH9" s="10"/>
+      <c r="AI9" s="10"/>
+      <c r="AJ9" s="11"/>
+      <c r="AK9" s="11"/>
+      <c r="AL9" s="11"/>
+      <c r="AM9" s="10"/>
+      <c r="AN9" s="10"/>
     </row>
     <row r="10" spans="1:41" ht="27" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="11" t="s">
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="11" t="s">
+      <c r="F10" s="12"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="11" t="s">
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="R10" s="11" t="s">
+      <c r="R10" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="S10" s="14"/>
-      <c r="T10" s="14"/>
-      <c r="U10" s="14"/>
-      <c r="V10" s="15"/>
-      <c r="W10" s="15" t="s">
+      <c r="S10" s="13"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="13"/>
+      <c r="V10" s="14"/>
+      <c r="W10" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="X10" s="14"/>
-      <c r="Y10" s="16"/>
-      <c r="Z10" s="13"/>
-      <c r="AA10" s="14"/>
-      <c r="AB10" s="13"/>
-      <c r="AC10" s="14"/>
-      <c r="AD10" s="14"/>
-      <c r="AE10" s="13"/>
-      <c r="AF10" s="14"/>
-      <c r="AG10" s="12"/>
-      <c r="AH10" s="11"/>
-      <c r="AI10" s="11"/>
-      <c r="AJ10" s="12"/>
-      <c r="AK10" s="12"/>
-      <c r="AL10" s="12"/>
-      <c r="AM10" s="11"/>
-      <c r="AN10" s="11"/>
+      <c r="X10" s="13"/>
+      <c r="Y10" s="15"/>
+      <c r="Z10" s="12"/>
+      <c r="AA10" s="13"/>
+      <c r="AB10" s="12"/>
+      <c r="AC10" s="13"/>
+      <c r="AD10" s="13"/>
+      <c r="AE10" s="12"/>
+      <c r="AF10" s="13"/>
+      <c r="AG10" s="11"/>
+      <c r="AH10" s="10"/>
+      <c r="AI10" s="10"/>
+      <c r="AJ10" s="11"/>
+      <c r="AK10" s="11"/>
+      <c r="AL10" s="11"/>
+      <c r="AM10" s="10"/>
+      <c r="AN10" s="10"/>
     </row>
     <row r="11" spans="1:41" ht="27" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="11" t="s">
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="11" t="s">
+      <c r="F11" s="12"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="R11" s="11" t="s">
+      <c r="R11" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="S11" s="14"/>
-      <c r="T11" s="14"/>
-      <c r="U11" s="14"/>
-      <c r="V11" s="15"/>
-      <c r="W11" s="15" t="s">
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="14"/>
+      <c r="W11" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="X11" s="14"/>
-      <c r="Y11" s="13"/>
-      <c r="Z11" s="13"/>
-      <c r="AA11" s="14"/>
-      <c r="AB11" s="13"/>
-      <c r="AC11" s="14"/>
-      <c r="AD11" s="14"/>
-      <c r="AE11" s="13"/>
-      <c r="AF11" s="14"/>
-      <c r="AG11" s="12"/>
-      <c r="AH11" s="11"/>
-      <c r="AI11" s="11"/>
-      <c r="AJ11" s="12"/>
-      <c r="AK11" s="12"/>
-      <c r="AL11" s="12"/>
-      <c r="AM11" s="11"/>
-      <c r="AN11" s="11"/>
+      <c r="X11" s="13"/>
+      <c r="Y11" s="12"/>
+      <c r="Z11" s="12"/>
+      <c r="AA11" s="13"/>
+      <c r="AB11" s="12"/>
+      <c r="AC11" s="13"/>
+      <c r="AD11" s="13"/>
+      <c r="AE11" s="12"/>
+      <c r="AF11" s="13"/>
+      <c r="AG11" s="11"/>
+      <c r="AH11" s="10"/>
+      <c r="AI11" s="10"/>
+      <c r="AJ11" s="11"/>
+      <c r="AK11" s="11"/>
+      <c r="AL11" s="11"/>
+      <c r="AM11" s="10"/>
+      <c r="AN11" s="10"/>
     </row>
     <row r="12" spans="1:41" ht="18" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="11" t="s">
+      <c r="A12" s="16"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="R12" s="14"/>
-      <c r="S12" s="14"/>
-      <c r="T12" s="14"/>
-      <c r="U12" s="14"/>
-      <c r="V12" s="15"/>
-      <c r="W12" s="15" t="s">
+      <c r="R12" s="13"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="13"/>
+      <c r="U12" s="13"/>
+      <c r="V12" s="14"/>
+      <c r="W12" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="X12" s="14"/>
-      <c r="Y12" s="14"/>
-      <c r="Z12" s="14"/>
-      <c r="AA12" s="14"/>
-      <c r="AB12" s="14"/>
-      <c r="AC12" s="14"/>
-      <c r="AD12" s="14"/>
-      <c r="AE12" s="14"/>
-      <c r="AF12" s="14"/>
-      <c r="AG12" s="11"/>
-      <c r="AH12" s="11"/>
-      <c r="AI12" s="11"/>
-      <c r="AJ12" s="11"/>
-      <c r="AK12" s="11"/>
-      <c r="AL12" s="11"/>
-      <c r="AM12" s="11"/>
-      <c r="AN12" s="11"/>
+      <c r="X12" s="13"/>
+      <c r="Y12" s="13"/>
+      <c r="Z12" s="13"/>
+      <c r="AA12" s="13"/>
+      <c r="AB12" s="13"/>
+      <c r="AC12" s="13"/>
+      <c r="AD12" s="13"/>
+      <c r="AE12" s="13"/>
+      <c r="AF12" s="13"/>
+      <c r="AG12" s="10"/>
+      <c r="AH12" s="10"/>
+      <c r="AI12" s="10"/>
+      <c r="AJ12" s="10"/>
+      <c r="AK12" s="10"/>
+      <c r="AL12" s="10"/>
+      <c r="AM12" s="10"/>
+      <c r="AN12" s="10"/>
     </row>
     <row r="13" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="14"/>
-      <c r="S13" s="14"/>
-      <c r="T13" s="14"/>
-      <c r="U13" s="14"/>
-      <c r="V13" s="15"/>
-      <c r="W13" s="14"/>
-      <c r="X13" s="14"/>
-      <c r="Y13" s="14"/>
-      <c r="Z13" s="14"/>
-      <c r="AA13" s="14"/>
-      <c r="AB13" s="14"/>
-      <c r="AC13" s="14"/>
-      <c r="AD13" s="14"/>
-      <c r="AE13" s="14"/>
-      <c r="AF13" s="14"/>
-      <c r="AG13" s="11"/>
-      <c r="AH13" s="11"/>
-      <c r="AI13" s="11"/>
-      <c r="AJ13" s="11"/>
-      <c r="AK13" s="11"/>
-      <c r="AL13" s="11"/>
-      <c r="AM13" s="11"/>
-      <c r="AN13" s="11"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="13"/>
+      <c r="T13" s="13"/>
+      <c r="U13" s="13"/>
+      <c r="V13" s="14"/>
+      <c r="W13" s="13"/>
+      <c r="X13" s="13"/>
+      <c r="Y13" s="13"/>
+      <c r="Z13" s="13"/>
+      <c r="AA13" s="13"/>
+      <c r="AB13" s="13"/>
+      <c r="AC13" s="13"/>
+      <c r="AD13" s="13"/>
+      <c r="AE13" s="13"/>
+      <c r="AF13" s="13"/>
+      <c r="AG13" s="10"/>
+      <c r="AH13" s="10"/>
+      <c r="AI13" s="10"/>
+      <c r="AJ13" s="10"/>
+      <c r="AK13" s="10"/>
+      <c r="AL13" s="10"/>
+      <c r="AM13" s="10"/>
+      <c r="AN13" s="10"/>
     </row>
     <row r="14" spans="1:41" ht="18" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="14"/>
-      <c r="S14" s="14"/>
-      <c r="T14" s="14"/>
-      <c r="U14" s="14"/>
-      <c r="V14" s="15"/>
-      <c r="W14" s="15" t="s">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="13"/>
+      <c r="U14" s="13"/>
+      <c r="V14" s="14"/>
+      <c r="W14" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="X14" s="14"/>
-      <c r="Y14" s="14"/>
-      <c r="Z14" s="14"/>
-      <c r="AA14" s="14"/>
-      <c r="AB14" s="14"/>
-      <c r="AC14" s="14"/>
-      <c r="AD14" s="14"/>
-      <c r="AE14" s="14"/>
-      <c r="AF14" s="14"/>
-      <c r="AG14" s="11"/>
-      <c r="AH14" s="11"/>
-      <c r="AI14" s="11"/>
-      <c r="AJ14" s="11"/>
-      <c r="AK14" s="11"/>
-      <c r="AL14" s="11"/>
-      <c r="AM14" s="11"/>
-      <c r="AN14" s="11"/>
+      <c r="X14" s="13"/>
+      <c r="Y14" s="13"/>
+      <c r="Z14" s="13"/>
+      <c r="AA14" s="13"/>
+      <c r="AB14" s="13"/>
+      <c r="AC14" s="13"/>
+      <c r="AD14" s="13"/>
+      <c r="AE14" s="13"/>
+      <c r="AF14" s="13"/>
+      <c r="AG14" s="10"/>
+      <c r="AH14" s="10"/>
+      <c r="AI14" s="10"/>
+      <c r="AJ14" s="10"/>
+      <c r="AK14" s="10"/>
+      <c r="AL14" s="10"/>
+      <c r="AM14" s="10"/>
+      <c r="AN14" s="10"/>
     </row>
     <row r="15" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="14"/>
-      <c r="S15" s="14"/>
-      <c r="T15" s="14"/>
-      <c r="U15" s="14"/>
-      <c r="V15" s="15"/>
-      <c r="W15" s="14"/>
-      <c r="X15" s="14"/>
-      <c r="Y15" s="14"/>
-      <c r="Z15" s="14"/>
-      <c r="AA15" s="14"/>
-      <c r="AB15" s="14"/>
-      <c r="AC15" s="14"/>
-      <c r="AD15" s="14"/>
-      <c r="AE15" s="14"/>
-      <c r="AF15" s="14"/>
-      <c r="AG15" s="11"/>
-      <c r="AH15" s="11"/>
-      <c r="AI15" s="11"/>
-      <c r="AJ15" s="11"/>
-      <c r="AK15" s="11"/>
-      <c r="AL15" s="11"/>
-      <c r="AM15" s="11"/>
-      <c r="AN15" s="11"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="13"/>
+      <c r="V15" s="14"/>
+      <c r="W15" s="13"/>
+      <c r="X15" s="13"/>
+      <c r="Y15" s="13"/>
+      <c r="Z15" s="13"/>
+      <c r="AA15" s="13"/>
+      <c r="AB15" s="13"/>
+      <c r="AC15" s="13"/>
+      <c r="AD15" s="13"/>
+      <c r="AE15" s="13"/>
+      <c r="AF15" s="13"/>
+      <c r="AG15" s="10"/>
+      <c r="AH15" s="10"/>
+      <c r="AI15" s="10"/>
+      <c r="AJ15" s="10"/>
+      <c r="AK15" s="10"/>
+      <c r="AL15" s="10"/>
+      <c r="AM15" s="10"/>
+      <c r="AN15" s="10"/>
     </row>
     <row r="16" spans="1:41" ht="27" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="14"/>
-      <c r="S16" s="14"/>
-      <c r="T16" s="14"/>
-      <c r="U16" s="14"/>
-      <c r="V16" s="15"/>
-      <c r="W16" s="15" t="s">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="13"/>
+      <c r="V16" s="14"/>
+      <c r="W16" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="X16" s="14"/>
-      <c r="Y16" s="14"/>
-      <c r="Z16" s="14"/>
-      <c r="AA16" s="14"/>
-      <c r="AB16" s="14"/>
-      <c r="AC16" s="14"/>
-      <c r="AD16" s="14"/>
-      <c r="AE16" s="14"/>
-      <c r="AF16" s="14"/>
-      <c r="AG16" s="11"/>
-      <c r="AH16" s="11"/>
-      <c r="AI16" s="11"/>
-      <c r="AJ16" s="11"/>
-      <c r="AK16" s="11"/>
-      <c r="AL16" s="11"/>
-      <c r="AM16" s="11"/>
-      <c r="AN16" s="11"/>
+      <c r="X16" s="13"/>
+      <c r="Y16" s="13"/>
+      <c r="Z16" s="13"/>
+      <c r="AA16" s="13"/>
+      <c r="AB16" s="13"/>
+      <c r="AC16" s="13"/>
+      <c r="AD16" s="13"/>
+      <c r="AE16" s="13"/>
+      <c r="AF16" s="13"/>
+      <c r="AG16" s="10"/>
+      <c r="AH16" s="10"/>
+      <c r="AI16" s="10"/>
+      <c r="AJ16" s="10"/>
+      <c r="AK16" s="10"/>
+      <c r="AL16" s="10"/>
+      <c r="AM16" s="10"/>
+      <c r="AN16" s="10"/>
     </row>
     <row r="17" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="14"/>
-      <c r="R17" s="14"/>
-      <c r="S17" s="14"/>
-      <c r="T17" s="14"/>
-      <c r="U17" s="14"/>
-      <c r="V17" s="15"/>
-      <c r="W17" s="14"/>
-      <c r="X17" s="14"/>
-      <c r="Y17" s="14"/>
-      <c r="Z17" s="14"/>
-      <c r="AA17" s="14"/>
-      <c r="AB17" s="14"/>
-      <c r="AC17" s="14"/>
-      <c r="AD17" s="14"/>
-      <c r="AE17" s="14"/>
-      <c r="AF17" s="14"/>
-      <c r="AG17" s="11"/>
-      <c r="AH17" s="11"/>
-      <c r="AI17" s="11"/>
-      <c r="AJ17" s="11"/>
-      <c r="AK17" s="11"/>
-      <c r="AL17" s="11"/>
-      <c r="AM17" s="11"/>
-      <c r="AN17" s="11"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="13"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="13"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="13"/>
+      <c r="X17" s="13"/>
+      <c r="Y17" s="13"/>
+      <c r="Z17" s="13"/>
+      <c r="AA17" s="13"/>
+      <c r="AB17" s="13"/>
+      <c r="AC17" s="13"/>
+      <c r="AD17" s="13"/>
+      <c r="AE17" s="13"/>
+      <c r="AF17" s="13"/>
+      <c r="AG17" s="10"/>
+      <c r="AH17" s="10"/>
+      <c r="AI17" s="10"/>
+      <c r="AJ17" s="10"/>
+      <c r="AK17" s="10"/>
+      <c r="AL17" s="10"/>
+      <c r="AM17" s="10"/>
+      <c r="AN17" s="10"/>
     </row>
     <row r="18" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="14"/>
-      <c r="R18" s="14"/>
-      <c r="S18" s="14"/>
-      <c r="T18" s="14"/>
-      <c r="U18" s="14"/>
-      <c r="V18" s="15"/>
-      <c r="W18" s="14"/>
-      <c r="X18" s="14"/>
-      <c r="Y18" s="14"/>
-      <c r="Z18" s="14"/>
-      <c r="AA18" s="14"/>
-      <c r="AB18" s="14"/>
-      <c r="AC18" s="14"/>
-      <c r="AD18" s="14"/>
-      <c r="AE18" s="14"/>
-      <c r="AF18" s="14"/>
-      <c r="AG18" s="11"/>
-      <c r="AH18" s="11"/>
-      <c r="AI18" s="11"/>
-      <c r="AJ18" s="11"/>
-      <c r="AK18" s="11"/>
-      <c r="AL18" s="11"/>
-      <c r="AM18" s="11"/>
-      <c r="AN18" s="11"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="13"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="14"/>
+      <c r="W18" s="13"/>
+      <c r="X18" s="13"/>
+      <c r="Y18" s="13"/>
+      <c r="Z18" s="13"/>
+      <c r="AA18" s="13"/>
+      <c r="AB18" s="13"/>
+      <c r="AC18" s="13"/>
+      <c r="AD18" s="13"/>
+      <c r="AE18" s="13"/>
+      <c r="AF18" s="13"/>
+      <c r="AG18" s="10"/>
+      <c r="AH18" s="10"/>
+      <c r="AI18" s="10"/>
+      <c r="AJ18" s="10"/>
+      <c r="AK18" s="10"/>
+      <c r="AL18" s="10"/>
+      <c r="AM18" s="10"/>
+      <c r="AN18" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2320,13 +2333,14 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.28515625" customWidth="1"/>
+    <col min="6" max="6" width="35.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2345,9 +2359,12 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+      <c r="F1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>1531</v>
       </c>
       <c r="B2" t="s">
@@ -2362,9 +2379,12 @@
       <c r="E2" t="s">
         <v>8</v>
       </c>
+      <c r="F2" s="17" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>1532</v>
       </c>
       <c r="C3" t="s">
@@ -2376,10 +2396,12 @@
       <c r="E3" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="1"/>
+      <c r="F3" s="17" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>1533</v>
       </c>
       <c r="C4" t="s">
@@ -2391,9 +2413,12 @@
       <c r="E4" t="s">
         <v>67</v>
       </c>
+      <c r="F4" s="17" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>1534</v>
       </c>
       <c r="C5" t="s">
@@ -2404,7 +2429,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>1535</v>
       </c>
       <c r="C6" t="s">
@@ -2412,110 +2437,110 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>1536</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>1537</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="A9" s="1">
         <v>1538</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
         <v>1539</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+      <c r="A11" s="1">
         <v>1540</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+      <c r="A12" s="1">
         <v>1541</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+      <c r="A13" s="1">
         <v>1542</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+      <c r="A14" s="1">
         <v>1543</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+      <c r="A15" s="1">
         <v>1544</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+      <c r="A16" s="1">
         <v>1545</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+      <c r="A17" s="1">
         <v>1546</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+      <c r="A18" s="1">
         <v>1547</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+      <c r="A19" s="1">
         <v>1548</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+      <c r="A20" s="1">
         <v>1549</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+      <c r="A21" s="1">
         <v>1550</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+      <c r="A22" s="1">
         <v>1551</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
+      <c r="A23" s="1">
         <v>1552</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+      <c r="A24" s="1">
         <v>1553</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
+      <c r="A25" s="1">
         <v>1554</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
+      <c r="A26" s="1">
         <v>1555</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
+      <c r="A27" s="1"/>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
+      <c r="A28" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
